--- a/차량운행-테이블명세.xlsx
+++ b/차량운행-테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505021\Documents\Workspace\SpringMVC\SpMVC_OneDay_MyCar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35B8D73-0DA8-4F70-A7A3-C0321A328862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F505439D-923D-4CBE-BC3F-6AD1669E5C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14655" yWindow="2925" windowWidth="17040" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="4" r:id="rId1"/>
@@ -1159,7 +1159,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1939,13 +1939,13 @@
         <v>29</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>56</v>
